--- a/documentation/input_vars.xlsx
+++ b/documentation/input_vars.xlsx
@@ -2973,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,7 +3115,7 @@
         <v>1990</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>323</v>
@@ -3132,7 +3132,7 @@
         <v>2000</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3143,7 +3143,7 @@
         <v>2010</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
